--- a/doc/第2回課題_クラス図_東.xlsx
+++ b/doc/第2回課題_クラス図_東.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" tabRatio="506" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="9012" tabRatio="506" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="43" r:id="rId1"/>
@@ -1443,9 +1443,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1455,116 +1505,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="216">
     <cellStyle name="ハイパーリンク" xfId="4" builtinId="8" hidden="1"/>
@@ -2691,6 +2691,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5455920" y="3855720"/>
+          <a:ext cx="7620" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3051,26 +3095,26 @@
       <c r="P9" s="32"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3257,7 +3301,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3293,12 +3339,12 @@
       <c r="S2" s="34"/>
       <c r="T2" s="34"/>
       <c r="U2" s="34"/>
-      <c r="V2" s="62" t="s">
+      <c r="V2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="94"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="63"/>
       <c r="Z2" s="34"/>
       <c r="AA2" s="34"/>
       <c r="AB2" s="34"/>
@@ -3331,10 +3377,10 @@
       <c r="S3" s="34"/>
       <c r="T3" s="34"/>
       <c r="U3" s="34"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="72"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="67"/>
       <c r="Z3" s="34"/>
       <c r="AA3" s="34"/>
       <c r="AB3" s="34"/>
@@ -3367,10 +3413,10 @@
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
       <c r="U4" s="38"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="92"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="71"/>
       <c r="Z4" s="34"/>
       <c r="AA4" s="37"/>
       <c r="AB4" s="38"/>
@@ -3439,8 +3485,8 @@
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
       <c r="U6" s="38"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
       <c r="X6" s="56"/>
       <c r="Y6" s="56"/>
       <c r="Z6" s="34"/>
@@ -3475,8 +3521,8 @@
       <c r="S7" s="34"/>
       <c r="T7" s="34"/>
       <c r="U7" s="34"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
       <c r="X7" s="56"/>
       <c r="Y7" s="56"/>
       <c r="Z7" s="34"/>
@@ -3494,24 +3540,24 @@
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D8" s="18"/>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="72"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
-      <c r="N8" s="62" t="s">
+      <c r="N8" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="75"/>
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
       <c r="U8" s="34"/>
@@ -3531,31 +3577,31 @@
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D9" s="18"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="79"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
-      <c r="N9" s="62" t="s">
+      <c r="N9" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="64"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="75"/>
       <c r="S9" s="34"/>
       <c r="T9" s="34"/>
       <c r="U9" s="34"/>
-      <c r="V9" s="62" t="s">
+      <c r="V9" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="94"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="63"/>
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="34"/>
@@ -3572,10 +3618,10 @@
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D10" s="18"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="96"/>
       <c r="I10" s="41">
         <v>1</v>
       </c>
@@ -3585,11 +3631,11 @@
       <c r="M10" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="59"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="61"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="79"/>
       <c r="S10" s="42"/>
       <c r="T10" s="42"/>
       <c r="U10" s="44"/>
@@ -3613,24 +3659,24 @@
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D11" s="18"/>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="83"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
-      <c r="N11" s="65" t="s">
+      <c r="N11" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="67"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="40"/>
       <c r="T11" s="40"/>
       <c r="U11" s="40"/>
@@ -3654,29 +3700,29 @@
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D12" s="18"/>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="82"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="90"/>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
-      <c r="N12" s="59" t="s">
+      <c r="N12" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="61"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="79"/>
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
       <c r="U12" s="34"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
       <c r="X12" s="56"/>
       <c r="Y12" s="56"/>
       <c r="Z12" s="34"/>
@@ -3696,12 +3742,12 @@
     <row r="13" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C13" s="22"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
@@ -3741,12 +3787,12 @@
       <c r="S14" s="34"/>
       <c r="T14" s="34"/>
       <c r="U14" s="34"/>
-      <c r="V14" s="62" t="s">
+      <c r="V14" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="94"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="63"/>
       <c r="Z14" s="34"/>
       <c r="AA14" s="34"/>
       <c r="AB14" s="34"/>
@@ -3774,10 +3820,10 @@
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
       <c r="U15" s="34"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="72"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="67"/>
       <c r="Z15" s="34"/>
       <c r="AA15" s="34"/>
       <c r="AB15" s="34"/>
@@ -3802,20 +3848,20 @@
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
-      <c r="N16" s="62" t="s">
+      <c r="N16" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="64"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="75"/>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
       <c r="U16" s="34"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="91"/>
-      <c r="Y16" s="92"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="71"/>
       <c r="Z16" s="34"/>
       <c r="AA16" s="34"/>
       <c r="AB16" s="34"/>
@@ -3840,20 +3886,20 @@
       <c r="K17" s="55"/>
       <c r="L17" s="55"/>
       <c r="M17" s="34"/>
-      <c r="N17" s="62" t="s">
+      <c r="N17" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="64"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="75"/>
       <c r="S17" s="34"/>
       <c r="T17" s="34"/>
       <c r="U17" s="34"/>
       <c r="V17" s="57"/>
       <c r="W17" s="57"/>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="99"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
       <c r="Z17" s="34"/>
       <c r="AA17" s="34"/>
       <c r="AB17" s="34"/>
@@ -3878,18 +3924,18 @@
       <c r="K18" s="55"/>
       <c r="L18" s="55"/>
       <c r="M18" s="34"/>
-      <c r="N18" s="59" t="s">
+      <c r="N18" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="61"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="79"/>
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
       <c r="U18" s="34"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
       <c r="X18" s="56"/>
       <c r="Y18" s="56"/>
       <c r="Z18" s="34"/>
@@ -3916,13 +3962,13 @@
       <c r="K19" s="55"/>
       <c r="L19" s="55"/>
       <c r="M19" s="34"/>
-      <c r="N19" s="65" t="s">
+      <c r="N19" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="67"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="81"/>
       <c r="S19" s="34"/>
       <c r="T19" s="34"/>
       <c r="U19" s="34"/>
@@ -3954,13 +4000,13 @@
       <c r="K20" s="55"/>
       <c r="L20" s="55"/>
       <c r="M20" s="34"/>
-      <c r="N20" s="65" t="s">
+      <c r="N20" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="67"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="81"/>
       <c r="S20" s="34"/>
       <c r="T20" s="34"/>
       <c r="U20" s="34"/>
@@ -3992,21 +4038,21 @@
       <c r="K21" s="56"/>
       <c r="L21" s="56"/>
       <c r="M21" s="34"/>
-      <c r="N21" s="59" t="s">
+      <c r="N21" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="61"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="79"/>
       <c r="S21" s="34"/>
       <c r="T21" s="34"/>
-      <c r="U21" s="62" t="s">
+      <c r="U21" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="64"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="75"/>
       <c r="Y21" s="34"/>
       <c r="Z21" s="34"/>
       <c r="AA21" s="34"/>
@@ -4040,10 +4086,10 @@
       <c r="R22" s="57"/>
       <c r="S22" s="34"/>
       <c r="T22" s="34"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="64"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="75"/>
       <c r="Y22" s="34"/>
       <c r="Z22" s="34"/>
       <c r="AA22" s="34"/>
@@ -4077,10 +4123,10 @@
       <c r="R23" s="34"/>
       <c r="S23" s="34"/>
       <c r="T23" s="34"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="92"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="71"/>
       <c r="Y23" s="34"/>
       <c r="Z23" s="34"/>
       <c r="AA23" s="34"/>
@@ -4113,10 +4159,10 @@
       <c r="R24" s="34"/>
       <c r="S24" s="34"/>
       <c r="T24"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="76"/>
       <c r="Y24" s="34"/>
       <c r="Z24" s="34"/>
       <c r="AA24" s="34"/>
@@ -4148,19 +4194,19 @@
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
-      <c r="N25" s="62" t="s">
+      <c r="N25" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="64"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="75"/>
       <c r="S25" s="34"/>
       <c r="T25" s="34"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="81"/>
-      <c r="X25" s="81"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
       <c r="Y25" s="34"/>
       <c r="Z25" s="34"/>
       <c r="AA25" s="34"/>
@@ -4194,13 +4240,13 @@
       <c r="M26" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="62" t="s">
+      <c r="N26" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="64"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="75"/>
       <c r="S26" s="34"/>
       <c r="T26" s="34"/>
       <c r="U26" s="34"/>
@@ -4238,19 +4284,19 @@
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="97"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="98"/>
       <c r="S27" s="34"/>
       <c r="T27" s="34"/>
-      <c r="U27" s="62" t="s">
+      <c r="U27" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="93"/>
-      <c r="W27" s="93"/>
-      <c r="X27" s="94"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="63"/>
       <c r="Y27" s="34"/>
       <c r="Z27" s="34"/>
       <c r="AA27" s="34"/>
@@ -4282,21 +4328,21 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
-      <c r="N28" s="65" t="s">
+      <c r="N28" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="67"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="81"/>
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
-      <c r="U28" s="96" t="s">
+      <c r="U28" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="V28" s="63"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="72"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="67"/>
       <c r="Y28" s="34"/>
       <c r="Z28" s="34"/>
       <c r="AA28" s="34"/>
@@ -4328,19 +4374,19 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
-      <c r="N29" s="68" t="s">
+      <c r="N29" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="70"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="99"/>
       <c r="S29" s="34"/>
       <c r="T29" s="34"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="91"/>
-      <c r="X29" s="92"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="71"/>
       <c r="Y29" s="34"/>
       <c r="Z29" s="34"/>
       <c r="AA29" s="34"/>
@@ -4372,19 +4418,19 @@
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
-      <c r="N30" s="59" t="s">
+      <c r="N30" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="61"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="79"/>
       <c r="S30" s="34"/>
       <c r="T30" s="34"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
       <c r="Y30" s="34"/>
       <c r="Z30" s="34"/>
       <c r="AA30" s="34"/>
@@ -4423,10 +4469,10 @@
       <c r="R31" s="34"/>
       <c r="S31" s="34"/>
       <c r="T31" s="34"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="81"/>
-      <c r="X31" s="81"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="74"/>
       <c r="Y31" s="34"/>
       <c r="Z31" s="34"/>
       <c r="AA31" s="34"/>
@@ -4486,20 +4532,20 @@
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
       <c r="N33" s="34"/>
-      <c r="O33" s="62" t="s">
+      <c r="O33" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="94"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="63"/>
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
-      <c r="U33" s="62" t="s">
+      <c r="U33" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="V33" s="93"/>
-      <c r="W33" s="93"/>
-      <c r="X33" s="94"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="63"/>
       <c r="Y33" s="18"/>
       <c r="Z33" s="18"/>
       <c r="AA33" s="18"/>
@@ -4519,109 +4565,109 @@
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
       <c r="N34" s="34"/>
-      <c r="O34" s="96" t="s">
+      <c r="O34" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="72"/>
-      <c r="U34" s="96" t="s">
+      <c r="P34" s="65"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="67"/>
+      <c r="U34" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="V34" s="63"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="72"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="67"/>
     </row>
     <row r="35" spans="4:34" x14ac:dyDescent="0.2">
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="N35" s="18"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="92"/>
-      <c r="U35" s="89"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="92"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="71"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="70"/>
+      <c r="X35" s="71"/>
     </row>
     <row r="36" spans="4:34" x14ac:dyDescent="0.2">
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="N36" s="18"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
     </row>
     <row r="37" spans="4:34" x14ac:dyDescent="0.2">
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="81"/>
-      <c r="X37" s="81"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N9:R9"/>
     <mergeCell ref="V14:Y14"/>
     <mergeCell ref="V15:Y15"/>
     <mergeCell ref="V16:Y16"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N9:R9"/>
     <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/第2回課題_クラス図_東.xlsx
+++ b/doc/第2回課題_クラス図_東.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\higashiy\Desktop\新しいフォルダー\課題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\Restaurant\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>変更履歴</t>
     <rPh sb="0" eb="2">
@@ -173,14 +173,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>+getPrice():BigDecimal</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>+order():String</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Calculation</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -193,10 +185,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>-calc(cals:Calculation):void</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>-name:String</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -205,14 +193,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>+addPrice(order:List&lt;Dish&gt;)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>+getTaxPrice</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>+getFinalTotalPrice</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -261,7 +241,123 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>0..3</t>
+    <t>+getCalc():void</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>+getPrice():int</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-calculation:Calculation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>+addPrice(Dish):void</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>+getTaxPrice():double</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>+setFinalTotalPrice():void</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;enum&gt;&gt;</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enu</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INE</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EER</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>COCKTAIL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HIGHBALL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EDAMAME</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CHICKEN</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>POTATO</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>COKE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HUMBURGER</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1300,7 +1396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1448,27 +1544,111 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1481,88 +1661,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1984,70 +2102,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>8572</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>236219</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>175259</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="二等辺三角形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1" flipV="1">
-          <a:off x="6458426" y="1063466"/>
-          <a:ext cx="190499" cy="227647"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 100000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
@@ -2092,37 +2146,309 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>15244</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6672943" y="5551714"/>
+          <a:ext cx="613955" cy="808809"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>174174</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3526972" y="2220686"/>
+          <a:ext cx="1273628" cy="914402"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>353569</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>109766</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>70217</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="二等辺三角形 11"/>
+        <xdr:cNvPr id="34" name="二等辺三角形 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="6477002" y="2026922"/>
-          <a:ext cx="137160" cy="198116"/>
+        <a:xfrm rot="13907415">
+          <a:off x="6584109" y="1199674"/>
+          <a:ext cx="205574" cy="126312"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 90625"/>
-          </a:avLst>
+          <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>10033</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>170325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>168400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>168973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="二等辺三角形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17596526">
+          <a:off x="6637650" y="2033565"/>
+          <a:ext cx="183706" cy="158367"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>362075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139798</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="二等辺三角形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2528332" y="4257803"/>
+          <a:ext cx="160439" cy="138309"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9858</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>182819</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>102663</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="二等辺三角形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6636307" y="5097465"/>
+          <a:ext cx="200635" cy="172961"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2156,341 +2482,35 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線コネクタ 12"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6423660" y="3398520"/>
-          <a:ext cx="662940" cy="662940"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>25150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>115360</xdr:rowOff>
+      <xdr:colOff>322909</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>128098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>218540</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>7112</xdr:rowOff>
+      <xdr:colOff>151715</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="二等辺三角形 14"/>
+        <xdr:cNvPr id="43" name="二等辺三角形 42"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10469668">
-          <a:off x="6456430" y="3407200"/>
-          <a:ext cx="193390" cy="257512"/>
+        <a:xfrm rot="19452288">
+          <a:off x="6593080" y="5494755"/>
+          <a:ext cx="198921" cy="171484"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 86207"/>
-          </a:avLst>
+          <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6461760" y="5074920"/>
-          <a:ext cx="647700" cy="236220"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線コネクタ 17"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6461760" y="5410200"/>
-          <a:ext cx="624840" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線コネクタ 21"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5608320" y="5471160"/>
-          <a:ext cx="22860" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>32905</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80332</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>207395</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>112251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="二等辺三角形 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10288186">
-          <a:off x="6464185" y="5018092"/>
-          <a:ext cx="174490" cy="214799"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 86207"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>10046</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95571</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>184536</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>127490</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="二等辺三角形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10288186">
-          <a:off x="6441326" y="5399091"/>
-          <a:ext cx="174490" cy="214799"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 86207"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2524,37 +2544,35 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>236188</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>32897</xdr:rowOff>
+      <xdr:colOff>266140</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>372171</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>17959</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>101494</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="二等辺三角形 25"/>
+        <xdr:cNvPr id="44" name="二等辺三角形 43"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="13543944">
-          <a:off x="5531349" y="5535276"/>
-          <a:ext cx="167942" cy="135983"/>
+        <a:xfrm>
+          <a:off x="5796083" y="5744701"/>
+          <a:ext cx="205468" cy="177128"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 88103"/>
-          </a:avLst>
+          <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2587,26 +2605,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 26"/>
+        <xdr:cNvPr id="49" name="直線コネクタ 48"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2316480" y="2400300"/>
-          <a:ext cx="2240280" cy="2499360"/>
+        <a:xfrm>
+          <a:off x="3537857" y="4256316"/>
+          <a:ext cx="1251857" cy="740227"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2631,92 +2649,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>393119</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>329838</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>169588</xdr:rowOff>
+      <xdr:rowOff>11974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>541527</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>110627</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="ひし形 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="2557861">
-          <a:off x="2290499" y="2364148"/>
-          <a:ext cx="148408" cy="123919"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+        <xdr:cNvPr id="51" name="直線コネクタ 50"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5455920" y="3855720"/>
-          <a:ext cx="7620" cy="518160"/>
+          <a:off x="5859781" y="2232660"/>
+          <a:ext cx="3371305" cy="1969226"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="arrow"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3299,19 +3259,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AQ37"/>
+  <dimension ref="B2:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="4.6640625" style="17"/>
     <col min="3" max="3" width="4.33203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="17" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="4.6640625" style="17"/>
-    <col min="8" max="8" width="15.5546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="4" style="17" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="17" customWidth="1"/>
+    <col min="6" max="7" width="6.44140625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="17" customWidth="1"/>
     <col min="9" max="13" width="4.6640625" style="17"/>
     <col min="14" max="18" width="5.44140625" style="17" customWidth="1"/>
     <col min="19" max="23" width="4.6640625" style="17"/>
@@ -3339,12 +3298,12 @@
       <c r="S2" s="34"/>
       <c r="T2" s="34"/>
       <c r="U2" s="34"/>
-      <c r="V2" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="63"/>
+      <c r="V2" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="95"/>
       <c r="Z2" s="34"/>
       <c r="AA2" s="34"/>
       <c r="AB2" s="34"/>
@@ -3377,10 +3336,10 @@
       <c r="S3" s="34"/>
       <c r="T3" s="34"/>
       <c r="U3" s="34"/>
-      <c r="V3" s="61"/>
+      <c r="V3" s="64"/>
       <c r="W3" s="65"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="67"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="77"/>
       <c r="Z3" s="34"/>
       <c r="AA3" s="34"/>
       <c r="AB3" s="34"/>
@@ -3413,10 +3372,10 @@
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
       <c r="U4" s="38"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="71"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="99"/>
       <c r="Z4" s="34"/>
       <c r="AA4" s="37"/>
       <c r="AB4" s="38"/>
@@ -3540,24 +3499,24 @@
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D8" s="18"/>
-      <c r="E8" s="61" t="s">
-        <v>23</v>
+      <c r="E8" s="64" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
-      <c r="N8" s="61" t="s">
+      <c r="N8" s="64" t="s">
         <v>13</v>
       </c>
       <c r="O8" s="65"/>
       <c r="P8" s="65"/>
       <c r="Q8" s="65"/>
-      <c r="R8" s="75"/>
+      <c r="R8" s="66"/>
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
       <c r="U8" s="34"/>
@@ -3577,31 +3536,31 @@
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D9" s="18"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="64" t="s">
         <v>16</v>
       </c>
       <c r="O9" s="65"/>
       <c r="P9" s="65"/>
       <c r="Q9" s="65"/>
-      <c r="R9" s="75"/>
+      <c r="R9" s="66"/>
       <c r="S9" s="34"/>
       <c r="T9" s="34"/>
       <c r="U9" s="34"/>
-      <c r="V9" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="63"/>
+      <c r="V9" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="95"/>
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="34"/>
@@ -3618,10 +3577,10 @@
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D10" s="18"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="96"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="93"/>
       <c r="I10" s="41">
         <v>1</v>
       </c>
@@ -3629,13 +3588,15 @@
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
       <c r="M10" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="77"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="79"/>
+        <v>36</v>
+      </c>
+      <c r="N10" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="63"/>
       <c r="S10" s="42"/>
       <c r="T10" s="42"/>
       <c r="U10" s="44"/>
@@ -3659,24 +3620,24 @@
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D11" s="18"/>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="83"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
-      <c r="N11" s="80" t="s">
+      <c r="N11" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="81"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="72"/>
       <c r="S11" s="40"/>
       <c r="T11" s="40"/>
       <c r="U11" s="40"/>
@@ -3700,24 +3661,24 @@
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D12" s="18"/>
-      <c r="E12" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="90"/>
+      <c r="E12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
-      <c r="N12" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="79"/>
+      <c r="N12" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="63"/>
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
       <c r="U12" s="34"/>
@@ -3733,25 +3694,21 @@
       <c r="AE12" s="34"/>
       <c r="AF12" s="34"/>
       <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C13" s="22"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="93"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="90"/>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
+      <c r="N13" s="100">
+        <v>1</v>
+      </c>
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="34"/>
@@ -3761,50 +3718,33 @@
       <c r="Y13" s="34"/>
       <c r="Z13" s="34"/>
       <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
       <c r="AF13" s="34"/>
       <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D14" s="18"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
-      <c r="H14" s="34">
-        <v>1</v>
-      </c>
+      <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
+      <c r="N14" s="101"/>
       <c r="S14" s="34"/>
       <c r="T14" s="34"/>
       <c r="U14" s="34"/>
-      <c r="V14" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="63"/>
+      <c r="V14" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="95"/>
       <c r="Z14" s="34"/>
       <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
       <c r="AF14" s="34"/>
       <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D15" s="18"/>
@@ -3817,25 +3757,18 @@
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
+      <c r="N15" s="101"/>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
       <c r="U15" s="34"/>
-      <c r="V15" s="61"/>
+      <c r="V15" s="64"/>
       <c r="W15" s="65"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="67"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="77"/>
       <c r="Z15" s="34"/>
       <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
       <c r="AF15" s="34"/>
       <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D16" s="18"/>
@@ -3848,32 +3781,18 @@
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
-      <c r="N16" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="75"/>
+      <c r="N16" s="101"/>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
       <c r="U16" s="34"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="71"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="99"/>
       <c r="Z16" s="34"/>
       <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
       <c r="AF16" s="34"/>
       <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="36"/>
     </row>
     <row r="17" spans="3:43" x14ac:dyDescent="0.2">
       <c r="D17" s="18"/>
@@ -3882,19 +3801,13 @@
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
-      <c r="J17" s="55"/>
+      <c r="J17" s="55">
+        <v>1</v>
+      </c>
       <c r="K17" s="55"/>
       <c r="L17" s="55"/>
       <c r="M17" s="34"/>
-      <c r="N17" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
+      <c r="N17" s="101"/>
       <c r="U17" s="34"/>
       <c r="V17" s="57"/>
       <c r="W17" s="57"/>
@@ -3902,48 +3815,29 @@
       <c r="Y17" s="59"/>
       <c r="Z17" s="34"/>
       <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
       <c r="AF17" s="34"/>
       <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
     </row>
     <row r="18" spans="3:43" x14ac:dyDescent="0.2">
       <c r="D18" s="18"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="E18" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="66"/>
       <c r="J18" s="55"/>
       <c r="K18" s="55"/>
       <c r="L18" s="55"/>
       <c r="M18" s="34"/>
-      <c r="N18" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
+      <c r="N18" s="101"/>
       <c r="U18" s="34"/>
       <c r="V18" s="58"/>
       <c r="W18" s="58"/>
       <c r="X18" s="56"/>
       <c r="Y18" s="56"/>
       <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
       <c r="AF18" s="34"/>
       <c r="AG18" s="34"/>
       <c r="AH18" s="34"/>
@@ -3953,230 +3847,188 @@
     </row>
     <row r="19" spans="3:43" x14ac:dyDescent="0.2">
       <c r="D19" s="18"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
+      <c r="E19" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="55"/>
       <c r="K19" s="55"/>
       <c r="L19" s="55"/>
       <c r="M19" s="34"/>
-      <c r="N19" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
+      <c r="N19" s="101"/>
       <c r="U19" s="34"/>
       <c r="V19" s="34"/>
       <c r="W19" s="34"/>
       <c r="X19" s="34"/>
       <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
+      <c r="Z19" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="66"/>
       <c r="AF19" s="34"/>
       <c r="AG19" s="34"/>
       <c r="AH19" s="34"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
     </row>
     <row r="20" spans="3:43" x14ac:dyDescent="0.2">
       <c r="D20" s="18"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="E20" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="55"/>
       <c r="K20" s="55"/>
       <c r="L20" s="55"/>
       <c r="M20" s="34"/>
-      <c r="N20" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
+      <c r="N20" s="101"/>
       <c r="U20" s="34"/>
       <c r="V20" s="34"/>
       <c r="W20" s="34"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
+      <c r="Z20" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="66"/>
       <c r="AF20" s="34"/>
       <c r="AG20" s="34"/>
       <c r="AH20" s="34"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
     </row>
     <row r="21" spans="3:43" x14ac:dyDescent="0.2">
       <c r="D21" s="18"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="E21" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="55"/>
       <c r="K21" s="56"/>
       <c r="L21" s="56"/>
       <c r="M21" s="34"/>
-      <c r="N21" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="75"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="18"/>
       <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
+      <c r="Z21" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="66"/>
       <c r="AF21" s="34"/>
       <c r="AG21" s="34"/>
       <c r="AH21" s="34"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="36"/>
     </row>
     <row r="22" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C22" s="22"/>
       <c r="D22" s="35"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="E22" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="72"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="75"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="58"/>
       <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
+      <c r="Z22" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="66"/>
       <c r="AF22" s="34"/>
       <c r="AG22" s="34"/>
       <c r="AH22" s="34"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="36"/>
     </row>
     <row r="23" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C23" s="22"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="E23" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="34">
+        <v>1</v>
+      </c>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
+      <c r="N23" s="103"/>
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
       <c r="Q23" s="34"/>
       <c r="R23" s="34"/>
       <c r="S23" s="34"/>
       <c r="T23" s="34"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="71"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
       <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
+      <c r="Z23" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="66"/>
       <c r="AF23" s="34"/>
       <c r="AG23" s="34"/>
       <c r="AH23" s="34"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="36"/>
     </row>
     <row r="24" spans="3:43" x14ac:dyDescent="0.2">
       <c r="D24" s="18"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
+      <c r="G24" s="104"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
+      <c r="N24" s="44">
+        <v>1</v>
+      </c>
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
       <c r="Q24" s="34"/>
       <c r="R24" s="34"/>
       <c r="S24" s="34"/>
       <c r="T24"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="76"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
       <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
+      <c r="Z24" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="66"/>
       <c r="AE24" s="34"/>
       <c r="AF24" s="34"/>
       <c r="AG24" s="34"/>
       <c r="AH24" s="21"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="19"/>
       <c r="AM24" s="19"/>
       <c r="AN24" s="19"/>
       <c r="AO24" s="19"/>
@@ -4187,40 +4039,37 @@
       <c r="D25" s="18"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
-      <c r="N25" s="61" t="s">
+      <c r="N25" s="64" t="s">
         <v>13</v>
       </c>
       <c r="O25" s="65"/>
       <c r="P25" s="65"/>
       <c r="Q25" s="65"/>
-      <c r="R25" s="75"/>
+      <c r="R25" s="66"/>
       <c r="S25" s="34"/>
       <c r="T25" s="34"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
       <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
+      <c r="Z25" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="66"/>
       <c r="AE25" s="34"/>
       <c r="AF25" s="34"/>
       <c r="AG25" s="34"/>
       <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
       <c r="AM25" s="19"/>
       <c r="AN25" s="19"/>
       <c r="AO25" s="19"/>
@@ -4230,23 +4079,23 @@
     <row r="26" spans="3:43" x14ac:dyDescent="0.2">
       <c r="D26" s="18"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
+      <c r="F26" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="106"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
-      <c r="M26" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="61" t="s">
-        <v>22</v>
+      <c r="M26" s="39"/>
+      <c r="N26" s="64" t="s">
+        <v>20</v>
       </c>
       <c r="O26" s="65"/>
       <c r="P26" s="65"/>
       <c r="Q26" s="65"/>
-      <c r="R26" s="75"/>
+      <c r="R26" s="66"/>
       <c r="S26" s="34"/>
       <c r="T26" s="34"/>
       <c r="U26" s="34"/>
@@ -4254,19 +4103,16 @@
       <c r="W26" s="34"/>
       <c r="X26" s="34"/>
       <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
+      <c r="Z26" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="66"/>
       <c r="AE26" s="34"/>
       <c r="AF26" s="34"/>
       <c r="AG26" s="34"/>
       <c r="AH26" s="19"/>
-      <c r="AI26" s="19"/>
-      <c r="AJ26" s="19"/>
-      <c r="AK26" s="19"/>
-      <c r="AL26" s="19"/>
       <c r="AM26" s="19"/>
       <c r="AN26" s="19"/>
       <c r="AO26" s="19"/>
@@ -4276,41 +4122,40 @@
     <row r="27" spans="3:43" x14ac:dyDescent="0.2">
       <c r="D27" s="18"/>
       <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="106"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="98"/>
+      <c r="M27" s="34">
+        <v>1</v>
+      </c>
+      <c r="N27" s="67"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="69"/>
       <c r="S27" s="34"/>
       <c r="T27" s="34"/>
-      <c r="U27" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="63"/>
+      <c r="U27" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="95"/>
       <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
+      <c r="Z27" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA27" s="110"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="111"/>
       <c r="AE27" s="34"/>
       <c r="AF27" s="34"/>
       <c r="AG27" s="34"/>
       <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="19"/>
       <c r="AM27" s="19"/>
       <c r="AN27" s="19"/>
       <c r="AO27" s="19"/>
@@ -4320,43 +4165,40 @@
     <row r="28" spans="3:43" x14ac:dyDescent="0.2">
       <c r="D28" s="18"/>
       <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="107"/>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
-      <c r="N28" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="64" t="s">
+      <c r="N28" s="70" t="s">
         <v>40</v>
       </c>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="67" t="s">
+        <v>35</v>
+      </c>
       <c r="V28" s="65"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="67"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="77"/>
       <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
+      <c r="Z28" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA28" s="110"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="111"/>
       <c r="AE28" s="34"/>
       <c r="AF28" s="34"/>
       <c r="AG28" s="34"/>
       <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
       <c r="AM28" s="19"/>
       <c r="AN28" s="19"/>
       <c r="AO28" s="19"/>
@@ -4374,33 +4216,31 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
-      <c r="N29" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="99"/>
+      <c r="N29" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="75"/>
       <c r="S29" s="34"/>
       <c r="T29" s="34"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="71"/>
+      <c r="U29" s="96"/>
+      <c r="V29" s="97"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="99"/>
       <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="34"/>
+      <c r="Z29" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA29" s="110"/>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="111"/>
       <c r="AD29" s="34"/>
       <c r="AE29" s="34"/>
       <c r="AF29" s="34"/>
       <c r="AG29" s="34"/>
       <c r="AH29" s="20"/>
-      <c r="AI29" s="20"/>
-      <c r="AJ29" s="20"/>
-      <c r="AK29" s="20"/>
-      <c r="AL29" s="20"/>
       <c r="AM29" s="20"/>
       <c r="AN29" s="20"/>
       <c r="AO29" s="20"/>
@@ -4418,19 +4258,19 @@
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
-      <c r="N30" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="79"/>
+      <c r="N30" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="75"/>
       <c r="S30" s="34"/>
       <c r="T30" s="34"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="72"/>
-      <c r="X30" s="72"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
       <c r="Y30" s="34"/>
       <c r="Z30" s="34"/>
       <c r="AA30" s="34"/>
@@ -4462,17 +4302,19 @@
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
+      <c r="N31" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="63"/>
       <c r="S31" s="34"/>
       <c r="T31" s="34"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="73"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="74"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="86"/>
+      <c r="X31" s="86"/>
       <c r="Y31" s="34"/>
       <c r="Z31" s="34"/>
       <c r="AA31" s="34"/>
@@ -4500,7 +4342,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="34"/>
       <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
+      <c r="P32" s="104"/>
       <c r="Q32" s="34"/>
       <c r="R32" s="34"/>
       <c r="S32" s="18"/>
@@ -4532,20 +4374,18 @@
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
       <c r="N33" s="34"/>
-      <c r="O33" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="63"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
-      <c r="U33" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="63"/>
+      <c r="U33" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="95"/>
       <c r="Y33" s="18"/>
       <c r="Z33" s="18"/>
       <c r="AA33" s="18"/>
@@ -4566,81 +4406,98 @@
       <c r="K34" s="18"/>
       <c r="N34" s="34"/>
       <c r="O34" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="67"/>
-      <c r="U34" s="64" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="95"/>
+      <c r="U34" s="67" t="s">
+        <v>33</v>
       </c>
       <c r="V34" s="65"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="67"/>
+      <c r="W34" s="76"/>
+      <c r="X34" s="77"/>
     </row>
     <row r="35" spans="4:34" x14ac:dyDescent="0.2">
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="71"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="69"/>
-      <c r="W35" s="70"/>
-      <c r="X35" s="71"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="77"/>
+      <c r="U35" s="96"/>
+      <c r="V35" s="97"/>
+      <c r="W35" s="98"/>
+      <c r="X35" s="99"/>
     </row>
     <row r="36" spans="4:34" x14ac:dyDescent="0.2">
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="N36" s="18"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="98"/>
+      <c r="R36" s="99"/>
+      <c r="U36" s="71"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="71"/>
     </row>
     <row r="37" spans="4:34" x14ac:dyDescent="0.2">
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="86"/>
+      <c r="X37" s="86"/>
+    </row>
+    <row r="38" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N9:R9"/>
+  <mergeCells count="62">
+    <mergeCell ref="Z19:AC19"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="Z24:AC24"/>
+    <mergeCell ref="Z23:AC23"/>
+    <mergeCell ref="Z22:AC22"/>
+    <mergeCell ref="Z21:AC21"/>
+    <mergeCell ref="Z20:AC20"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="Z27:AC27"/>
+    <mergeCell ref="Z26:AC26"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F27:H27"/>
     <mergeCell ref="V14:Y14"/>
     <mergeCell ref="V15:Y15"/>
     <mergeCell ref="V16:Y16"/>
@@ -4648,26 +4505,30 @@
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N30:R30"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/第2回課題_クラス図_東.xlsx
+++ b/doc/第2回課題_クラス図_東.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>変更履歴</t>
     <rPh sb="0" eb="2">
@@ -181,19 +181,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>-getOrder(res:Restaurant):void</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>-name:String</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>-price:int</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>+getFinalTotalPrice</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -358,6 +350,40 @@
   </si>
   <si>
     <t>HUMBURGER</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-intoRestaurant():void</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>+showMenu():void</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>+addOrder():void</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-order(res:Restaurant):void</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>+addExplain():void</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>+getFinalTotalPrice(Calculation)</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -527,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -747,6 +773,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1396,7 +1435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1541,137 +1580,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1683,6 +1606,118 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="216">
     <cellStyle name="ハイパーリンク" xfId="4" builtinId="8" hidden="1"/>
@@ -2233,16 +2268,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>353569</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>223</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>49700</xdr:rowOff>
+      <xdr:rowOff>38908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>109766</xdr:colOff>
+      <xdr:colOff>150603</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>70217</xdr:rowOff>
+      <xdr:rowOff>36825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2251,8 +2286,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="13907415">
-          <a:off x="6584109" y="1199674"/>
-          <a:ext cx="205574" cy="126312"/>
+          <a:off x="6939217" y="1139014"/>
+          <a:ext cx="178892" cy="150380"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
@@ -2482,15 +2517,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>322909</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>128098</xdr:rowOff>
+      <xdr:colOff>610865</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>151715</xdr:colOff>
+      <xdr:colOff>159835</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>114525</xdr:rowOff>
+      <xdr:rowOff>136728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2499,8 +2534,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19452288">
-          <a:off x="6593080" y="5494755"/>
-          <a:ext cx="198921" cy="171484"/>
+          <a:off x="6935465" y="5430711"/>
+          <a:ext cx="177620" cy="135267"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
@@ -2545,13 +2580,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>266140</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>7930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>101494</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2649,16 +2684,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>329838</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>11974</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2666,9 +2701,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5859781" y="2232660"/>
-          <a:ext cx="3371305" cy="1969226"/>
+        <a:xfrm flipV="1">
+          <a:off x="3457575" y="2533650"/>
+          <a:ext cx="1438275" cy="1971675"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3055,26 +3090,26 @@
       <c r="P9" s="32"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3259,9 +3294,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AQ38"/>
+  <dimension ref="B2:AQ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3272,7 +3307,8 @@
     <col min="6" max="7" width="6.44140625" style="17" customWidth="1"/>
     <col min="8" max="8" width="8.77734375" style="17" customWidth="1"/>
     <col min="9" max="13" width="4.6640625" style="17"/>
-    <col min="14" max="18" width="5.44140625" style="17" customWidth="1"/>
+    <col min="14" max="17" width="5.44140625" style="17" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" style="17" customWidth="1"/>
     <col min="19" max="23" width="4.6640625" style="17"/>
     <col min="24" max="24" width="10.33203125" style="17" customWidth="1"/>
     <col min="25" max="16384" width="4.6640625" style="17"/>
@@ -3298,12 +3334,12 @@
       <c r="S2" s="34"/>
       <c r="T2" s="34"/>
       <c r="U2" s="34"/>
-      <c r="V2" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="95"/>
+      <c r="V2" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="73"/>
       <c r="Z2" s="34"/>
       <c r="AA2" s="34"/>
       <c r="AB2" s="34"/>
@@ -3336,10 +3372,10 @@
       <c r="S3" s="34"/>
       <c r="T3" s="34"/>
       <c r="U3" s="34"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="77"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="76"/>
       <c r="Z3" s="34"/>
       <c r="AA3" s="34"/>
       <c r="AB3" s="34"/>
@@ -3372,10 +3408,10 @@
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
       <c r="U4" s="38"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="99"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="80"/>
       <c r="Z4" s="34"/>
       <c r="AA4" s="37"/>
       <c r="AB4" s="38"/>
@@ -3499,24 +3535,24 @@
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D8" s="18"/>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="77"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
-      <c r="N8" s="64" t="s">
+      <c r="N8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="66"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="68"/>
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
       <c r="U8" s="34"/>
@@ -3536,31 +3572,31 @@
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D9" s="18"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="96"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
-      <c r="N9" s="64" t="s">
+      <c r="N9" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="66"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="68"/>
       <c r="S9" s="34"/>
       <c r="T9" s="34"/>
       <c r="U9" s="34"/>
-      <c r="V9" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="W9" s="94"/>
-      <c r="X9" s="94"/>
-      <c r="Y9" s="95"/>
+      <c r="V9" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="73"/>
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="34"/>
@@ -3577,10 +3613,10 @@
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D10" s="18"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="102"/>
       <c r="I10" s="41">
         <v>1</v>
       </c>
@@ -3588,15 +3624,15 @@
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
       <c r="M10" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="63"/>
+        <v>34</v>
+      </c>
+      <c r="N10" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="87"/>
       <c r="S10" s="42"/>
       <c r="T10" s="42"/>
       <c r="U10" s="44"/>
@@ -3620,24 +3656,24 @@
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D11" s="18"/>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
-      <c r="N11" s="70" t="s">
+      <c r="N11" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="72"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="89"/>
       <c r="S11" s="40"/>
       <c r="T11" s="40"/>
       <c r="U11" s="40"/>
@@ -3661,24 +3697,24 @@
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D12" s="18"/>
-      <c r="E12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
+      <c r="E12" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="107"/>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
-      <c r="N12" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="63"/>
+      <c r="N12" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="105"/>
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
       <c r="U12" s="34"/>
@@ -3698,17 +3734,23 @@
     <row r="13" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C13" s="22"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="90"/>
+      <c r="E13" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="84"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
-      <c r="N13" s="100">
-        <v>1</v>
-      </c>
+      <c r="N13" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="105"/>
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="34"/>
@@ -3731,16 +3773,22 @@
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
-      <c r="N14" s="101"/>
+      <c r="N14" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="87"/>
       <c r="S14" s="34"/>
       <c r="T14" s="34"/>
       <c r="U14" s="34"/>
-      <c r="V14" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="95"/>
+      <c r="V14" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="73"/>
       <c r="Z14" s="34"/>
       <c r="AA14" s="34"/>
       <c r="AF14" s="34"/>
@@ -3757,14 +3805,16 @@
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
-      <c r="N15" s="101"/>
+      <c r="N15" s="60">
+        <v>1</v>
+      </c>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
       <c r="U15" s="34"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="77"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="76"/>
       <c r="Z15" s="34"/>
       <c r="AA15" s="34"/>
       <c r="AF15" s="34"/>
@@ -3781,20 +3831,20 @@
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
-      <c r="N16" s="101"/>
+      <c r="N16" s="61"/>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
       <c r="U16" s="34"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="99"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="80"/>
       <c r="Z16" s="34"/>
       <c r="AA16" s="34"/>
       <c r="AF16" s="34"/>
       <c r="AG16" s="34"/>
     </row>
-    <row r="17" spans="3:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:43" x14ac:dyDescent="0.2">
       <c r="D17" s="18"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
@@ -3807,7 +3857,7 @@
       <c r="K17" s="55"/>
       <c r="L17" s="55"/>
       <c r="M17" s="34"/>
-      <c r="N17" s="101"/>
+      <c r="N17" s="61"/>
       <c r="U17" s="34"/>
       <c r="V17" s="57"/>
       <c r="W17" s="57"/>
@@ -3818,20 +3868,20 @@
       <c r="AF17" s="34"/>
       <c r="AG17" s="34"/>
     </row>
-    <row r="18" spans="3:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:43" x14ac:dyDescent="0.2">
       <c r="D18" s="18"/>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="68"/>
       <c r="J18" s="55"/>
       <c r="K18" s="55"/>
       <c r="L18" s="55"/>
       <c r="M18" s="34"/>
-      <c r="N18" s="101"/>
+      <c r="N18" s="61"/>
       <c r="U18" s="34"/>
       <c r="V18" s="58"/>
       <c r="W18" s="58"/>
@@ -3845,138 +3895,109 @@
       <c r="AJ18" s="36"/>
       <c r="AK18" s="36"/>
     </row>
-    <row r="19" spans="3:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:43" x14ac:dyDescent="0.2">
       <c r="D19" s="18"/>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="68"/>
       <c r="J19" s="55"/>
       <c r="K19" s="55"/>
       <c r="L19" s="55"/>
       <c r="M19" s="34"/>
-      <c r="N19" s="101"/>
+      <c r="N19" s="61"/>
       <c r="U19" s="34"/>
       <c r="V19" s="34"/>
       <c r="W19" s="34"/>
       <c r="X19" s="34"/>
       <c r="Y19" s="34"/>
-      <c r="Z19" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="66"/>
       <c r="AF19" s="34"/>
       <c r="AG19" s="34"/>
       <c r="AH19" s="34"/>
     </row>
-    <row r="20" spans="3:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:43" x14ac:dyDescent="0.2">
       <c r="D20" s="18"/>
-      <c r="E20" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
+      <c r="E20" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="87"/>
       <c r="J20" s="55"/>
       <c r="K20" s="55"/>
       <c r="L20" s="55"/>
       <c r="M20" s="34"/>
-      <c r="N20" s="101"/>
+      <c r="N20" s="61"/>
       <c r="U20" s="34"/>
       <c r="V20" s="34"/>
       <c r="W20" s="34"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="34"/>
-      <c r="Z20" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="66"/>
       <c r="AF20" s="34"/>
       <c r="AG20" s="34"/>
       <c r="AH20" s="34"/>
     </row>
-    <row r="21" spans="3:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:43" x14ac:dyDescent="0.2">
       <c r="D21" s="18"/>
-      <c r="E21" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="72"/>
+      <c r="E21" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="89"/>
       <c r="J21" s="55"/>
       <c r="K21" s="56"/>
       <c r="L21" s="56"/>
       <c r="M21" s="34"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="18"/>
+      <c r="N21" s="61"/>
       <c r="Y21" s="34"/>
-      <c r="Z21" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="66"/>
       <c r="AF21" s="34"/>
       <c r="AG21" s="34"/>
       <c r="AH21" s="34"/>
     </row>
-    <row r="22" spans="3:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:43" x14ac:dyDescent="0.2">
       <c r="C22" s="22"/>
       <c r="D22" s="35"/>
-      <c r="E22" s="70" t="s">
+      <c r="E22" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="72"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="89"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="58"/>
+      <c r="N22" s="61"/>
       <c r="Y22" s="34"/>
-      <c r="Z22" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="66"/>
       <c r="AF22" s="34"/>
       <c r="AG22" s="34"/>
       <c r="AH22" s="34"/>
     </row>
-    <row r="23" spans="3:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:43" x14ac:dyDescent="0.2">
       <c r="C23" s="22"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
+      <c r="E23" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="87"/>
       <c r="J23" s="34">
         <v>1</v>
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="18"/>
       <c r="S23" s="34"/>
       <c r="T23" s="34"/>
       <c r="U23" s="18"/>
@@ -3984,47 +4005,30 @@
       <c r="W23" s="18"/>
       <c r="X23" s="18"/>
       <c r="Y23" s="34"/>
-      <c r="Z23" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="66"/>
       <c r="AF23" s="34"/>
       <c r="AG23" s="34"/>
       <c r="AH23" s="34"/>
     </row>
-    <row r="24" spans="3:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:43" x14ac:dyDescent="0.2">
       <c r="D24" s="18"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="104"/>
+      <c r="G24" s="64"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
-      <c r="N24" s="44">
-        <v>1</v>
-      </c>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="58"/>
       <c r="S24" s="34"/>
       <c r="T24"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="86"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
       <c r="Y24" s="34"/>
-      <c r="Z24" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="66"/>
       <c r="AE24" s="34"/>
       <c r="AF24" s="34"/>
       <c r="AG24" s="34"/>
@@ -4035,9 +4039,13 @@
       <c r="AP24" s="19"/>
       <c r="AQ24" s="19"/>
     </row>
-    <row r="25" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="D25" s="18"/>
-      <c r="E25" s="34"/>
+    <row r="25" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B25" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="34"/>
       <c r="G25" s="44"/>
       <c r="H25" s="34"/>
@@ -4046,26 +4054,18 @@
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
-      <c r="N25" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="66"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
       <c r="S25" s="34"/>
       <c r="T25" s="34"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="83"/>
       <c r="Y25" s="34"/>
-      <c r="Z25" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="66"/>
       <c r="AE25" s="34"/>
       <c r="AF25" s="34"/>
       <c r="AG25" s="34"/>
@@ -4076,26 +4076,29 @@
       <c r="AP25" s="19"/>
       <c r="AQ25" s="19"/>
     </row>
-    <row r="26" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="D26" s="18"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="65"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="106"/>
+    <row r="26" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B26" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="68"/>
+      <c r="G26" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="67"/>
+      <c r="I26" s="68"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
       <c r="M26" s="39"/>
-      <c r="N26" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="66"/>
+      <c r="N26" s="44">
+        <v>1</v>
+      </c>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
       <c r="S26" s="34"/>
       <c r="T26" s="34"/>
       <c r="U26" s="34"/>
@@ -4103,12 +4106,6 @@
       <c r="W26" s="34"/>
       <c r="X26" s="34"/>
       <c r="Y26" s="34"/>
-      <c r="Z26" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="66"/>
       <c r="AE26" s="34"/>
       <c r="AF26" s="34"/>
       <c r="AG26" s="34"/>
@@ -4119,39 +4116,39 @@
       <c r="AP26" s="19"/>
       <c r="AQ26" s="19"/>
     </row>
-    <row r="27" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="D27" s="18"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="106"/>
+    <row r="27" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B27" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="68"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
       <c r="M27" s="34">
         <v>1</v>
       </c>
-      <c r="N27" s="67"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="69"/>
+      <c r="N27" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="68"/>
       <c r="S27" s="34"/>
       <c r="T27" s="34"/>
-      <c r="U27" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="95"/>
+      <c r="U27" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="73"/>
       <c r="Y27" s="34"/>
-      <c r="Z27" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA27" s="110"/>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="111"/>
       <c r="AE27" s="34"/>
       <c r="AF27" s="34"/>
       <c r="AG27" s="34"/>
@@ -4162,39 +4159,36 @@
       <c r="AP27" s="19"/>
       <c r="AQ27" s="19"/>
     </row>
-    <row r="28" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="D28" s="18"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="107"/>
+    <row r="28" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B28" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="68"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="68"/>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
-      <c r="N28" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="72"/>
+      <c r="N28" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="68"/>
       <c r="S28" s="41"/>
       <c r="T28" s="44"/>
-      <c r="U28" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="V28" s="65"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="77"/>
+      <c r="U28" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="V28" s="67"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="76"/>
       <c r="Y28" s="34"/>
-      <c r="Z28" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA28" s="110"/>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="111"/>
       <c r="AE28" s="34"/>
       <c r="AF28" s="34"/>
       <c r="AG28" s="34"/>
@@ -4205,9 +4199,13 @@
       <c r="AP28" s="19"/>
       <c r="AQ28" s="19"/>
     </row>
-    <row r="29" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="D29" s="18"/>
-      <c r="E29" s="34"/>
+    <row r="29" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B29" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
@@ -4216,26 +4214,18 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
-      <c r="N29" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="75"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="104"/>
       <c r="S29" s="34"/>
       <c r="T29" s="34"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="97"/>
-      <c r="W29" s="98"/>
-      <c r="X29" s="99"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="80"/>
       <c r="Y29" s="34"/>
-      <c r="Z29" s="109" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA29" s="110"/>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="111"/>
       <c r="AD29" s="34"/>
       <c r="AE29" s="34"/>
       <c r="AF29" s="34"/>
@@ -4247,9 +4237,13 @@
       <c r="AP29" s="20"/>
       <c r="AQ29" s="20"/>
     </row>
-    <row r="30" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="D30" s="18"/>
-      <c r="E30" s="34"/>
+    <row r="30" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B30" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
@@ -4258,19 +4252,19 @@
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
-      <c r="N30" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="75"/>
+      <c r="N30" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="89"/>
       <c r="S30" s="34"/>
       <c r="T30" s="34"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="81"/>
+      <c r="X30" s="81"/>
       <c r="Y30" s="34"/>
       <c r="Z30" s="34"/>
       <c r="AA30" s="34"/>
@@ -4291,30 +4285,31 @@
       <c r="AP30" s="20"/>
       <c r="AQ30" s="20"/>
     </row>
-    <row r="31" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="D31" s="18"/>
-      <c r="E31" s="34"/>
+    <row r="31" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B31" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
-      <c r="N31" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="63"/>
+      <c r="N31" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="105"/>
       <c r="S31" s="34"/>
       <c r="T31" s="34"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="86"/>
-      <c r="X31" s="86"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="83"/>
+      <c r="X31" s="83"/>
       <c r="Y31" s="34"/>
       <c r="Z31" s="34"/>
       <c r="AA31" s="34"/>
@@ -4329,22 +4324,25 @@
       <c r="AJ31" s="36"/>
       <c r="AK31" s="36"/>
     </row>
-    <row r="32" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="D32" s="18"/>
-      <c r="E32" s="34"/>
+    <row r="32" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B32" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="18"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
+      <c r="N32" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="105"/>
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
       <c r="U32" s="18"/>
@@ -4362,30 +4360,33 @@
       <c r="AG32" s="18"/>
       <c r="AH32" s="18"/>
     </row>
-    <row r="33" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+    <row r="33" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B33" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="71"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
+      <c r="N33" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="82"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="82"/>
+      <c r="R33" s="105"/>
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
-      <c r="U33" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="95"/>
+      <c r="U33" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="73"/>
       <c r="Y33" s="18"/>
       <c r="Z33" s="18"/>
       <c r="AA33" s="18"/>
@@ -4397,107 +4398,129 @@
       <c r="AG33" s="18"/>
       <c r="AH33" s="18"/>
     </row>
-    <row r="34" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="E34" s="18"/>
+    <row r="34" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B34" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="64" t="s">
+      <c r="N34" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="87"/>
+      <c r="U34" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="95"/>
-      <c r="U34" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="V34" s="65"/>
-      <c r="W34" s="76"/>
-      <c r="X34" s="77"/>
-    </row>
-    <row r="35" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="V34" s="67"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="76"/>
+    </row>
+    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B35" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="71"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="N35" s="34"/>
-      <c r="O35" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="77"/>
-      <c r="U35" s="96"/>
-      <c r="V35" s="97"/>
-      <c r="W35" s="98"/>
-      <c r="X35" s="99"/>
-    </row>
-    <row r="36" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="O35" s="34"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="78"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="80"/>
+    </row>
+    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="98"/>
-      <c r="R36" s="99"/>
-      <c r="U36" s="71"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-    </row>
-    <row r="37" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="U36" s="81"/>
+      <c r="V36" s="81"/>
+      <c r="W36" s="81"/>
+      <c r="X36" s="81"/>
+    </row>
+    <row r="37" spans="2:34" x14ac:dyDescent="0.2">
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="86"/>
-      <c r="X37" s="86"/>
-    </row>
-    <row r="38" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="86"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="73"/>
+      <c r="U37" s="82"/>
+      <c r="V37" s="82"/>
+      <c r="W37" s="83"/>
+      <c r="X37" s="83"/>
+    </row>
+    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="N38" s="34"/>
+      <c r="O38" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="76"/>
+    </row>
+    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="N39" s="18"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="80"/>
+    </row>
+    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="N40" s="18"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+    </row>
+    <row r="41" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="O41" s="82"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="Z19:AC19"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="Z24:AC24"/>
-    <mergeCell ref="Z23:AC23"/>
-    <mergeCell ref="Z22:AC22"/>
-    <mergeCell ref="Z21:AC21"/>
-    <mergeCell ref="Z20:AC20"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="Z27:AC27"/>
-    <mergeCell ref="Z26:AC26"/>
-    <mergeCell ref="Z25:AC25"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F27:H27"/>
+  <mergeCells count="65">
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N12:R12"/>
     <mergeCell ref="V14:Y14"/>
     <mergeCell ref="V15:Y15"/>
     <mergeCell ref="V16:Y16"/>
@@ -4505,30 +4528,45 @@
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G27:I27"/>
     <mergeCell ref="N27:R27"/>
     <mergeCell ref="N28:R28"/>
     <mergeCell ref="N29:R29"/>
     <mergeCell ref="N30:R30"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
